--- a/config_1.11/act_hhl_ty_config.xlsx
+++ b/config_1.11/act_hhl_ty_config.xlsx
@@ -107,10 +107,6 @@
   </si>
   <si>
     <t>condiy_key|</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,2,3,4,5,6,7,8,9,10</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -277,6 +273,10 @@
   </si>
   <si>
     <t>act_022_hhl_</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2,3,4,5,6,7,8,9,10,11</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -724,7 +724,7 @@
   <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -784,13 +784,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C2" s="11">
         <v>57</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E2" s="9" t="s">
         <v>11</v>
@@ -803,7 +803,7 @@
         <v>1643039999</v>
       </c>
       <c r="J2" s="12" t="s">
-        <v>28</v>
+        <v>57</v>
       </c>
       <c r="K2" s="13" t="s">
         <v>12</v>
@@ -817,13 +817,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C3" s="11">
         <v>57</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E3" s="9" t="s">
         <v>11</v>
@@ -836,10 +836,10 @@
         <v>1643039999</v>
       </c>
       <c r="J3" s="12" t="s">
-        <v>28</v>
+        <v>57</v>
       </c>
       <c r="K3" s="18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L3" s="1" t="s">
         <v>13</v>
@@ -907,10 +907,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D2" s="5">
         <v>10</v>
@@ -926,10 +926,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D3" s="2">
         <v>1200</v>
@@ -945,10 +945,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D4" s="2">
         <v>3000</v>
@@ -964,10 +964,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D5" s="2">
         <v>6000</v>
@@ -983,10 +983,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D6" s="2">
         <v>9000</v>
@@ -1002,10 +1002,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D7" s="2">
         <v>12000</v>
@@ -1020,10 +1020,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D8" s="2">
         <v>24000</v>
@@ -1038,10 +1038,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D9" s="2">
         <v>30000</v>
@@ -1056,10 +1056,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D10" s="2">
         <v>42000</v>
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="H10" s="19" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.15">
@@ -1076,10 +1076,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="17" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D11" s="5">
         <v>60000</v>
@@ -1088,7 +1088,7 @@
         <v>0</v>
       </c>
       <c r="H11" s="19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.15">
@@ -1096,10 +1096,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C12" s="17" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D12" s="5">
         <v>300000</v>
@@ -1108,7 +1108,7 @@
         <v>0</v>
       </c>
       <c r="H12" s="19" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.15">
@@ -1319,6 +1319,16 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <listFile/>
+</mergeFile>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main" hasInvisiblePropRange="0">
   <rangeList sheetStid="1" master=""/>
   <rangeList sheetStid="2" master=""/>
@@ -1328,24 +1338,15 @@
 </allowEditUser>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <listFile/>
-</mergeFile>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<settings xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <bookSettings>
-    <isFilterShared>1</isFilterShared>
-    <isAutoUpdatePaused>0</isAutoUpdatePaused>
-    <filterType>conn</filterType>
-  </bookSettings>
-</settings>
+<sheetInterline xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <interlineItem sheetStid="1" interlineOnOff="0" interlineColor="0"/>
+  <interlineItem sheetStid="2" interlineOnOff="0" interlineColor="0"/>
+  <interlineItem sheetStid="3" interlineOnOff="0" interlineColor="0"/>
+  <interlineItem sheetStid="4" interlineOnOff="0" interlineColor="0"/>
+  <interlineItem sheetStid="6" interlineOnOff="0" interlineColor="0"/>
+  <interlineItem sheetStid="7" interlineOnOff="0" interlineColor="0"/>
+</sheetInterline>
 </file>
 
 <file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1360,18 +1361,17 @@
 </file>
 
 <file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
-<sheetInterline xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <interlineItem sheetStid="1" interlineOnOff="0" interlineColor="0"/>
-  <interlineItem sheetStid="2" interlineOnOff="0" interlineColor="0"/>
-  <interlineItem sheetStid="3" interlineOnOff="0" interlineColor="0"/>
-  <interlineItem sheetStid="4" interlineOnOff="0" interlineColor="0"/>
-  <interlineItem sheetStid="6" interlineOnOff="0" interlineColor="0"/>
-  <interlineItem sheetStid="7" interlineOnOff="0" interlineColor="0"/>
-</sheetInterline>
+<settings xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <bookSettings>
+    <isFilterShared>1</isFilterShared>
+    <isAutoUpdatePaused>0</isAutoUpdatePaused>
+    <filterType>conn</filterType>
+  </bookSettings>
+</settings>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
@@ -1383,13 +1383,13 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F91F69C-6E8C-4246-BC25-297BFDC75D90}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F8FC9E7-9E3E-4D00-BC07-C2C84DFACBCF}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
@@ -1401,7 +1401,7 @@
 </file>
 
 <file path=customXml/itemProps6.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F8FC9E7-9E3E-4D00-BC07-C2C84DFACBCF}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F91F69C-6E8C-4246-BC25-297BFDC75D90}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
--- a/config_1.11/act_hhl_ty_config.xlsx
+++ b/config_1.11/act_hhl_ty_config.xlsx
@@ -723,8 +723,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -797,7 +797,7 @@
       </c>
       <c r="F2" s="9"/>
       <c r="G2" s="11">
-        <v>1641254400</v>
+        <v>1641859200</v>
       </c>
       <c r="H2" s="11">
         <v>1643039999</v>
@@ -830,7 +830,7 @@
       </c>
       <c r="F3" s="9"/>
       <c r="G3" s="11">
-        <v>1641254400</v>
+        <v>1641859200</v>
       </c>
       <c r="H3" s="11">
         <v>1643039999</v>
@@ -1319,16 +1319,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <listFile/>
-</mergeFile>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main" hasInvisiblePropRange="0">
   <rangeList sheetStid="1" master=""/>
   <rangeList sheetStid="2" master=""/>
@@ -1338,15 +1328,24 @@
 </allowEditUser>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <listFile/>
+</mergeFile>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<sheetInterline xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <interlineItem sheetStid="1" interlineOnOff="0" interlineColor="0"/>
-  <interlineItem sheetStid="2" interlineOnOff="0" interlineColor="0"/>
-  <interlineItem sheetStid="3" interlineOnOff="0" interlineColor="0"/>
-  <interlineItem sheetStid="4" interlineOnOff="0" interlineColor="0"/>
-  <interlineItem sheetStid="6" interlineOnOff="0" interlineColor="0"/>
-  <interlineItem sheetStid="7" interlineOnOff="0" interlineColor="0"/>
-</sheetInterline>
+<settings xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <bookSettings>
+    <isFilterShared>1</isFilterShared>
+    <isAutoUpdatePaused>0</isAutoUpdatePaused>
+    <filterType>conn</filterType>
+  </bookSettings>
+</settings>
 </file>
 
 <file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1361,17 +1360,18 @@
 </file>
 
 <file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
-<settings xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <bookSettings>
-    <isFilterShared>1</isFilterShared>
-    <isAutoUpdatePaused>0</isAutoUpdatePaused>
-    <filterType>conn</filterType>
-  </bookSettings>
-</settings>
+<sheetInterline xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <interlineItem sheetStid="1" interlineOnOff="0" interlineColor="0"/>
+  <interlineItem sheetStid="2" interlineOnOff="0" interlineColor="0"/>
+  <interlineItem sheetStid="3" interlineOnOff="0" interlineColor="0"/>
+  <interlineItem sheetStid="4" interlineOnOff="0" interlineColor="0"/>
+  <interlineItem sheetStid="6" interlineOnOff="0" interlineColor="0"/>
+  <interlineItem sheetStid="7" interlineOnOff="0" interlineColor="0"/>
+</sheetInterline>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
@@ -1383,13 +1383,13 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F8FC9E7-9E3E-4D00-BC07-C2C84DFACBCF}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F91F69C-6E8C-4246-BC25-297BFDC75D90}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
@@ -1401,7 +1401,7 @@
 </file>
 
 <file path=customXml/itemProps6.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F91F69C-6E8C-4246-BC25-297BFDC75D90}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F8FC9E7-9E3E-4D00-BC07-C2C84DFACBCF}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>